--- a/Original/Tables/NewTU_Improvements_ORG.xlsx
+++ b/Original/Tables/NewTU_Improvements_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Improvements" sheetId="1" r:id="rId1"/>
@@ -4666,11 +4666,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,12 +4845,12 @@
       <c r="A10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>284</v>
-      </c>
+      <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
+      <c r="G10" s="78" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -9696,7 +9696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
